--- a/04 - PERKULIAHAN/ABSENSI/DOSEN/SEMESTER 2/ALL - ABSENSI DOSEN SMESTER GENAP.xlsx
+++ b/04 - PERKULIAHAN/ABSENSI/DOSEN/SEMESTER 2/ALL - ABSENSI DOSEN SMESTER GENAP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKADEMIK\TA 2016 - 2017\04 - PERKULIAHAN\ABSENSI\DOSEN\SEMESTER 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKADEMIK\TA 2016 - 2017\GIT\04 - PERKULIAHAN\ABSENSI\DOSEN\SEMESTER 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="15015" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="15015" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Februari" sheetId="1" r:id="rId1"/>
@@ -1714,6 +1714,129 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,6 +1844,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,24 +1903,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1785,135 +1914,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,11 +2222,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2323,70 +2323,70 @@
     </row>
     <row r="5" spans="1:37" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="137" t="s">
+      <c r="B6" s="186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="139"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
       <c r="AH6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="131" t="s">
+      <c r="AI6" s="180" t="s">
         <v>8</v>
       </c>
       <c r="AJ6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AK6" s="133" t="s">
+      <c r="AK6" s="182" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="24" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="136"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
       <c r="F7" s="45">
         <v>1</v>
       </c>
@@ -2472,23 +2472,23 @@
       <c r="AH7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AI7" s="132"/>
+      <c r="AI7" s="181"/>
       <c r="AJ7" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" s="134"/>
+      <c r="AK7" s="183"/>
     </row>
     <row r="8" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154">
+      <c r="A8" s="152">
         <v>1</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="156" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="190">
         <v>2</v>
       </c>
       <c r="E8" s="73" t="s">
@@ -2522,7 +2522,7 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="186"/>
+      <c r="AD8" s="133"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
@@ -2530,7 +2530,7 @@
         <f t="shared" ref="AH8:AH15" si="1">SUM(F8:AG8)</f>
         <v>4</v>
       </c>
-      <c r="AI8" s="178">
+      <c r="AI8" s="144">
         <f>SUM(AH8:AH9)</f>
         <v>8</v>
       </c>
@@ -2538,18 +2538,18 @@
         <f>COUNT(F8:AG8)</f>
         <v>2</v>
       </c>
-      <c r="AK8" s="178">
+      <c r="AK8" s="144">
         <f>SUM(AJ8:AJ9)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
-      <c r="B9" s="153"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="178"/>
       <c r="E9" s="74" t="s">
         <v>15</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
-      <c r="AD9" s="187"/>
+      <c r="AD9" s="134"/>
       <c r="AE9" s="26"/>
       <c r="AF9" s="25"/>
       <c r="AG9" s="25"/>
@@ -2589,24 +2589,24 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI9" s="179"/>
+      <c r="AI9" s="145"/>
       <c r="AJ9" s="43">
         <f>COUNT(F9:AG9)</f>
         <v>2</v>
       </c>
-      <c r="AK9" s="179"/>
+      <c r="AK9" s="145"/>
     </row>
     <row r="10" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154">
+      <c r="A10" s="152">
         <v>2</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="150" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="75" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
       <c r="AC10" s="27"/>
-      <c r="AD10" s="188"/>
+      <c r="AD10" s="135"/>
       <c r="AE10" s="28"/>
       <c r="AF10" s="27"/>
       <c r="AG10" s="27"/>
@@ -2646,7 +2646,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI10" s="178">
+      <c r="AI10" s="144">
         <f>SUM(AH10:AH11)</f>
         <v>8</v>
       </c>
@@ -2654,18 +2654,18 @@
         <f t="shared" ref="AJ10:AJ37" si="2">COUNT(F10:AG10)</f>
         <v>2</v>
       </c>
-      <c r="AK10" s="178">
+      <c r="AK10" s="144">
         <f>SUM(AJ10:AJ11)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="155"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="74" t="s">
         <v>13</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="25"/>
-      <c r="AD11" s="187"/>
+      <c r="AD11" s="134"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="25"/>
       <c r="AG11" s="25"/>
@@ -2705,24 +2705,24 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI11" s="179"/>
+      <c r="AI11" s="145"/>
       <c r="AJ11" s="43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK11" s="179"/>
+      <c r="AK11" s="145"/>
     </row>
     <row r="12" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146">
-        <v>3</v>
-      </c>
-      <c r="B12" s="144" t="s">
+      <c r="A12" s="172">
+        <v>3</v>
+      </c>
+      <c r="B12" s="150" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="143"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="76" t="s">
         <v>14</v>
       </c>
@@ -2752,8 +2752,8 @@
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="29"/>
-      <c r="AB12" s="189">
-        <v>3</v>
+      <c r="AB12" s="136">
+        <v>2</v>
       </c>
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
@@ -2762,11 +2762,11 @@
       <c r="AG12" s="29"/>
       <c r="AH12" s="29">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI12" s="29">
         <f>SUM(AH12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="2"/>
@@ -2778,12 +2778,12 @@
       </c>
     </row>
     <row r="13" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="128">
+      <c r="D13" s="169">
         <v>2</v>
       </c>
       <c r="E13" s="76" t="s">
@@ -2815,8 +2815,8 @@
       <c r="Y13" s="29"/>
       <c r="Z13" s="29"/>
       <c r="AA13" s="29"/>
-      <c r="AB13" s="189">
-        <v>3</v>
+      <c r="AB13" s="136">
+        <v>2</v>
       </c>
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
@@ -2825,11 +2825,11 @@
       <c r="AG13" s="29"/>
       <c r="AH13" s="29">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" s="29">
         <f>SUM(AH13)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ13" s="25">
         <f t="shared" si="2"/>
@@ -2841,16 +2841,16 @@
       </c>
     </row>
     <row r="14" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146">
+      <c r="A14" s="172">
         <v>4</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="191" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="129"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="75" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2892,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI14" s="178">
+      <c r="AI14" s="144">
         <f>SUM(AH14:AH17)</f>
         <v>24</v>
       </c>
@@ -2900,18 +2900,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK14" s="178">
+      <c r="AK14" s="144">
         <f>SUM(AJ14:AJ17)</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="129"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="77" t="s">
         <v>12</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
-      <c r="AB15" s="190">
+      <c r="AB15" s="137">
         <v>2</v>
       </c>
       <c r="AC15" s="36"/>
@@ -2953,20 +2953,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI15" s="180"/>
+      <c r="AI15" s="146"/>
       <c r="AJ15" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK15" s="180"/>
+      <c r="AK15" s="146"/>
     </row>
     <row r="16" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
-      <c r="B16" s="149"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="129"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="77" t="s">
         <v>14</v>
       </c>
@@ -3008,20 +3008,20 @@
         <f t="shared" ref="AH16:AH17" si="3">SUM(F16:AG16)</f>
         <v>6</v>
       </c>
-      <c r="AI16" s="180"/>
+      <c r="AI16" s="146"/>
       <c r="AJ16" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK16" s="180"/>
+      <c r="AK16" s="146"/>
     </row>
     <row r="17" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="130"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="74" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="X17" s="40"/>
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
-      <c r="AA17" s="182">
+      <c r="AA17" s="129">
         <v>2</v>
       </c>
       <c r="AB17" s="39"/>
@@ -3063,24 +3063,24 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AI17" s="179"/>
+      <c r="AI17" s="145"/>
       <c r="AJ17" s="25">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK17" s="179"/>
+      <c r="AK17" s="145"/>
     </row>
     <row r="18" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154">
+      <c r="A18" s="152">
         <v>5</v>
       </c>
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="166" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="169">
         <v>3</v>
       </c>
       <c r="E18" s="75" t="s">
@@ -3124,7 +3124,7 @@
         <f t="shared" ref="AH18:AH25" si="4">SUM(F18:AG18)</f>
         <v>9</v>
       </c>
-      <c r="AI18" s="178">
+      <c r="AI18" s="144">
         <f>SUM(AH18:AH19)</f>
         <v>18</v>
       </c>
@@ -3132,18 +3132,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK18" s="178">
+      <c r="AK18" s="144">
         <f>SUM(AJ18:AJ19)</f>
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="155"/>
-      <c r="B19" s="160"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="129"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="74" t="s">
         <v>12</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
-      <c r="AB19" s="191">
+      <c r="AB19" s="138">
         <v>3</v>
       </c>
       <c r="AC19" s="43"/>
@@ -3185,24 +3185,24 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AI19" s="179"/>
+      <c r="AI19" s="145"/>
       <c r="AJ19" s="25">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK19" s="179"/>
+      <c r="AK19" s="145"/>
     </row>
     <row r="20" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146">
+      <c r="A20" s="172">
         <v>6</v>
       </c>
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="166" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="129"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="75" t="s">
         <v>14</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="Y20" s="47"/>
       <c r="Z20" s="47"/>
       <c r="AA20" s="47"/>
-      <c r="AB20" s="184">
+      <c r="AB20" s="131">
         <v>3</v>
       </c>
       <c r="AC20" s="47"/>
@@ -3242,7 +3242,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AI20" s="178">
+      <c r="AI20" s="144">
         <f>SUM(AH20:AH21)</f>
         <v>12</v>
       </c>
@@ -3250,18 +3250,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK20" s="178">
+      <c r="AK20" s="144">
         <f>SUM(AJ20:AJ21)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147"/>
-      <c r="B21" s="160"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="129"/>
+      <c r="D21" s="170"/>
       <c r="E21" s="74" t="s">
         <v>15</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
-      <c r="AB21" s="185">
+      <c r="AB21" s="132">
         <v>3</v>
       </c>
       <c r="AC21" s="51"/>
@@ -3301,24 +3301,24 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AI21" s="179"/>
+      <c r="AI21" s="145"/>
       <c r="AJ21" s="101">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK21" s="179"/>
+      <c r="AK21" s="145"/>
     </row>
     <row r="22" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154">
+      <c r="A22" s="152">
         <v>7</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="166" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="171"/>
       <c r="E22" s="76" t="s">
         <v>13</v>
       </c>
@@ -3374,12 +3374,12 @@
       </c>
     </row>
     <row r="23" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="161">
+      <c r="D23" s="177">
         <v>3</v>
       </c>
       <c r="E23" s="78" t="s">
@@ -3410,7 +3410,7 @@
       <c r="X23" s="48"/>
       <c r="Y23" s="47"/>
       <c r="Z23" s="47"/>
-      <c r="AA23" s="181">
+      <c r="AA23" s="128">
         <v>3</v>
       </c>
       <c r="AB23" s="47"/>
@@ -3423,7 +3423,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AI23" s="173">
+      <c r="AI23" s="142">
         <f>SUM(AH23:AH24)</f>
         <v>18</v>
       </c>
@@ -3431,18 +3431,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK23" s="173">
+      <c r="AK23" s="142">
         <f>SUM(AJ23:AJ24)</f>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="155"/>
-      <c r="B24" s="160"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="142"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="74" t="s">
         <v>15</v>
       </c>
@@ -3484,24 +3484,24 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AI24" s="174"/>
+      <c r="AI24" s="143"/>
       <c r="AJ24" s="102">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK24" s="174"/>
+      <c r="AK24" s="143"/>
     </row>
     <row r="25" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="154">
+      <c r="A25" s="152">
         <v>8</v>
       </c>
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="160" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="142"/>
+      <c r="D25" s="178"/>
       <c r="E25" s="73" t="s">
         <v>16</v>
       </c>
@@ -3541,7 +3541,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AI25" s="175">
+      <c r="AI25" s="147">
         <f>SUM(AH25:AH27)</f>
         <v>18</v>
       </c>
@@ -3549,18 +3549,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK25" s="175">
+      <c r="AK25" s="147">
         <f>SUM(AJ25:AJ27)</f>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="169"/>
-      <c r="B26" s="168"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="142"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="77" t="s">
         <v>13</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="X26" s="58"/>
       <c r="Y26" s="57"/>
       <c r="Z26" s="57"/>
-      <c r="AA26" s="183">
+      <c r="AA26" s="130">
         <v>3</v>
       </c>
       <c r="AB26" s="57"/>
@@ -3600,20 +3600,20 @@
         <f t="shared" ref="AH26:AH27" si="5">SUM(F26:AG26)</f>
         <v>6</v>
       </c>
-      <c r="AI26" s="176"/>
+      <c r="AI26" s="148"/>
       <c r="AJ26" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK26" s="176"/>
+      <c r="AK26" s="148"/>
     </row>
     <row r="27" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="155"/>
-      <c r="B27" s="167"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="143"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="74" t="s">
         <v>14</v>
       </c>
@@ -3653,12 +3653,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AI27" s="177"/>
+      <c r="AI27" s="149"/>
       <c r="AJ27" s="102">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK27" s="177"/>
+      <c r="AK27" s="149"/>
     </row>
     <row r="28" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="112">
@@ -3670,7 +3670,7 @@
       <c r="C28" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="156">
+      <c r="D28" s="174">
         <v>3</v>
       </c>
       <c r="E28" s="79" t="s">
@@ -3702,7 +3702,7 @@
       <c r="Y28" s="71"/>
       <c r="Z28" s="71"/>
       <c r="AA28" s="71"/>
-      <c r="AB28" s="192">
+      <c r="AB28" s="139">
         <v>3</v>
       </c>
       <c r="AC28" s="71"/>
@@ -3728,16 +3728,16 @@
       </c>
     </row>
     <row r="29" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="164">
+      <c r="A29" s="158">
         <v>10</v>
       </c>
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="156" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="157"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="80" t="s">
         <v>16</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="Y29" s="47"/>
       <c r="Z29" s="47"/>
       <c r="AA29" s="47"/>
-      <c r="AB29" s="184">
+      <c r="AB29" s="131">
         <v>3</v>
       </c>
       <c r="AC29" s="47"/>
@@ -3779,7 +3779,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="AI29" s="173">
+      <c r="AI29" s="142">
         <f>SUM(AH29:AH30)</f>
         <v>18</v>
       </c>
@@ -3787,18 +3787,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK29" s="173">
+      <c r="AK29" s="142">
         <f>SUM(AJ29:AJ30)</f>
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="163"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="157"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="81" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="Y30" s="51"/>
       <c r="Z30" s="51"/>
       <c r="AA30" s="51"/>
-      <c r="AB30" s="185">
+      <c r="AB30" s="132">
         <v>3</v>
       </c>
       <c r="AC30" s="51"/>
@@ -3840,24 +3840,24 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="AI30" s="174"/>
+      <c r="AI30" s="143"/>
       <c r="AJ30" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK30" s="174"/>
+      <c r="AK30" s="143"/>
     </row>
     <row r="31" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="162">
+      <c r="A31" s="154">
         <v>11</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="159" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="80" t="s">
         <v>14</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="X31" s="48"/>
       <c r="Y31" s="47"/>
       <c r="Z31" s="47"/>
-      <c r="AA31" s="181">
+      <c r="AA31" s="128">
         <v>3</v>
       </c>
       <c r="AB31" s="47"/>
@@ -3899,7 +3899,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="AI31" s="173">
+      <c r="AI31" s="142">
         <f>SUM(AH31:AH32)</f>
         <v>18</v>
       </c>
@@ -3907,18 +3907,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK31" s="173">
+      <c r="AK31" s="142">
         <f>SUM(AJ31:AJ32)</f>
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163"/>
-      <c r="B32" s="153"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="157"/>
       <c r="C32" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="158"/>
+      <c r="D32" s="176"/>
       <c r="E32" s="81" t="s">
         <v>15</v>
       </c>
@@ -3960,24 +3960,24 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="AI32" s="174"/>
+      <c r="AI32" s="143"/>
       <c r="AJ32" s="102">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK32" s="174"/>
+      <c r="AK32" s="143"/>
     </row>
     <row r="33" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162">
+      <c r="A33" s="154">
         <v>12</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="159" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="156">
+      <c r="D33" s="174">
         <v>3</v>
       </c>
       <c r="E33" s="82" t="s">
@@ -4008,7 +4008,7 @@
       <c r="X33" s="48"/>
       <c r="Y33" s="47"/>
       <c r="Z33" s="47"/>
-      <c r="AA33" s="181">
+      <c r="AA33" s="128">
         <v>3</v>
       </c>
       <c r="AB33" s="47"/>
@@ -4021,7 +4021,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="AI33" s="175">
+      <c r="AI33" s="147">
         <f>SUM(AH33:AH35)</f>
         <v>27</v>
       </c>
@@ -4029,18 +4029,18 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK33" s="175">
+      <c r="AK33" s="147">
         <f>SUM(AJ33:AJ35)</f>
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="171"/>
-      <c r="B34" s="170"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="157"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="82" t="s">
         <v>12</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="X34" s="58"/>
       <c r="Y34" s="57"/>
       <c r="Z34" s="57"/>
-      <c r="AA34" s="183">
+      <c r="AA34" s="130">
         <v>3</v>
       </c>
       <c r="AB34" s="57"/>
@@ -4082,20 +4082,20 @@
         <f t="shared" ref="AH34:AH35" si="7">SUM(F34:AG34)</f>
         <v>9</v>
       </c>
-      <c r="AI34" s="176"/>
+      <c r="AI34" s="148"/>
       <c r="AJ34" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK34" s="176"/>
+      <c r="AK34" s="148"/>
     </row>
     <row r="35" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163"/>
-      <c r="B35" s="153"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="157"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="81" t="s">
         <v>13</v>
       </c>
@@ -4137,24 +4137,24 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="AI35" s="177"/>
+      <c r="AI35" s="149"/>
       <c r="AJ35" s="102">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK35" s="177"/>
+      <c r="AK35" s="149"/>
     </row>
     <row r="36" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162">
+      <c r="A36" s="154">
         <v>13</v>
       </c>
-      <c r="B36" s="166" t="s">
+      <c r="B36" s="160" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="157"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="82" t="s">
         <v>14</v>
       </c>
@@ -4192,7 +4192,7 @@
         <f>SUM(F36:AG36)</f>
         <v>3</v>
       </c>
-      <c r="AI36" s="173">
+      <c r="AI36" s="142">
         <f>SUM(AH36:AH37)</f>
         <v>6</v>
       </c>
@@ -4200,18 +4200,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK36" s="173">
+      <c r="AK36" s="142">
         <f>SUM(AJ36:AJ37)</f>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="163"/>
-      <c r="B37" s="167"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="161"/>
       <c r="C37" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="158"/>
+      <c r="D37" s="176"/>
       <c r="E37" s="81" t="s">
         <v>15</v>
       </c>
@@ -4249,12 +4249,12 @@
         <f>SUM(F37:AG37)</f>
         <v>3</v>
       </c>
-      <c r="AI37" s="174"/>
+      <c r="AI37" s="143"/>
       <c r="AJ37" s="102">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK37" s="174"/>
+      <c r="AK37" s="143"/>
     </row>
     <row r="38" spans="1:37" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
@@ -4447,50 +4447,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AK14:AK17"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AK25:AK27"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="AK33:AK35"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI35"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AI14:AI17"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AI25:AI27"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D23:D27"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AK6:AK7"/>
@@ -4507,6 +4463,50 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI35"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AI14:AI17"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AI25:AI27"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AK14:AK17"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AK25:AK27"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AK31:AK32"/>
+    <mergeCell ref="AK33:AK35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4518,11 +4518,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4619,70 +4619,70 @@
     </row>
     <row r="5" spans="1:37" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:37" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="137" t="s">
+      <c r="B6" s="186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="139"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
       <c r="AH6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="131" t="s">
+      <c r="AI6" s="180" t="s">
         <v>8</v>
       </c>
       <c r="AJ6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AK6" s="133" t="s">
+      <c r="AK6" s="182" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="24" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="136"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
       <c r="F7" s="127">
         <v>1</v>
       </c>
@@ -4768,23 +4768,23 @@
       <c r="AH7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AI7" s="132"/>
+      <c r="AI7" s="181"/>
       <c r="AJ7" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AK7" s="134"/>
+      <c r="AK7" s="183"/>
     </row>
     <row r="8" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154">
+      <c r="A8" s="152">
         <v>1</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="156" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="190">
         <v>2</v>
       </c>
       <c r="E8" s="73" t="s">
@@ -4822,7 +4822,7 @@
         <f t="shared" ref="AH8:AH35" si="1">SUM(F8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="178">
+      <c r="AI8" s="144">
         <f>SUM(AH8:AH9)</f>
         <v>0</v>
       </c>
@@ -4830,18 +4830,18 @@
         <f>COUNT(F8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="178">
+      <c r="AK8" s="144">
         <f>SUM(AJ8:AJ9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
-      <c r="B9" s="153"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="178"/>
       <c r="E9" s="74" t="s">
         <v>15</v>
       </c>
@@ -4877,24 +4877,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="179"/>
+      <c r="AI9" s="145"/>
       <c r="AJ9" s="43">
         <f>COUNT(F9:AG9)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="179"/>
+      <c r="AK9" s="145"/>
     </row>
     <row r="10" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154">
+      <c r="A10" s="152">
         <v>2</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="150" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="75" t="s">
         <v>12</v>
       </c>
@@ -4930,7 +4930,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="178">
+      <c r="AI10" s="144">
         <f>SUM(AH10:AH11)</f>
         <v>0</v>
       </c>
@@ -4938,18 +4938,18 @@
         <f t="shared" ref="AJ10:AJ37" si="2">COUNT(F10:AG10)</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="178">
+      <c r="AK10" s="144">
         <f>SUM(AJ10:AJ11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="155"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="74" t="s">
         <v>13</v>
       </c>
@@ -4985,24 +4985,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="179"/>
+      <c r="AI11" s="145"/>
       <c r="AJ11" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="179"/>
+      <c r="AK11" s="145"/>
     </row>
     <row r="12" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146">
-        <v>3</v>
-      </c>
-      <c r="B12" s="144" t="s">
+      <c r="A12" s="172">
+        <v>3</v>
+      </c>
+      <c r="B12" s="150" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="143"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="76" t="s">
         <v>14</v>
       </c>
@@ -5052,12 +5052,12 @@
       </c>
     </row>
     <row r="13" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="128">
+      <c r="D13" s="169">
         <v>2</v>
       </c>
       <c r="E13" s="76" t="s">
@@ -5109,16 +5109,16 @@
       </c>
     </row>
     <row r="14" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146">
+      <c r="A14" s="172">
         <v>4</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="191" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="129"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="75" t="s">
         <v>16</v>
       </c>
@@ -5154,7 +5154,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="178">
+      <c r="AI14" s="144">
         <f>SUM(AH14:AH17)</f>
         <v>0</v>
       </c>
@@ -5162,18 +5162,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="178">
+      <c r="AK14" s="144">
         <f>SUM(AJ14:AJ17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="129"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="77" t="s">
         <v>12</v>
       </c>
@@ -5209,20 +5209,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="180"/>
+      <c r="AI15" s="146"/>
       <c r="AJ15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="180"/>
+      <c r="AK15" s="146"/>
     </row>
     <row r="16" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
-      <c r="B16" s="149"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="129"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="77" t="s">
         <v>14</v>
       </c>
@@ -5258,20 +5258,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="180"/>
+      <c r="AI16" s="146"/>
       <c r="AJ16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="180"/>
+      <c r="AK16" s="146"/>
     </row>
     <row r="17" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="130"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="74" t="s">
         <v>15</v>
       </c>
@@ -5307,24 +5307,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="179"/>
+      <c r="AI17" s="145"/>
       <c r="AJ17" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="179"/>
+      <c r="AK17" s="145"/>
     </row>
     <row r="18" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154">
+      <c r="A18" s="152">
         <v>5</v>
       </c>
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="166" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="169">
         <v>3</v>
       </c>
       <c r="E18" s="75" t="s">
@@ -5362,7 +5362,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="178">
+      <c r="AI18" s="144">
         <f>SUM(AH18:AH19)</f>
         <v>0</v>
       </c>
@@ -5370,18 +5370,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="178">
+      <c r="AK18" s="144">
         <f>SUM(AJ18:AJ19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="155"/>
-      <c r="B19" s="160"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="129"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="74" t="s">
         <v>12</v>
       </c>
@@ -5417,24 +5417,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="179"/>
+      <c r="AI19" s="145"/>
       <c r="AJ19" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="179"/>
+      <c r="AK19" s="145"/>
     </row>
     <row r="20" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146">
+      <c r="A20" s="172">
         <v>6</v>
       </c>
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="166" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="129"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="75" t="s">
         <v>14</v>
       </c>
@@ -5470,7 +5470,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="178">
+      <c r="AI20" s="144">
         <f>SUM(AH20:AH21)</f>
         <v>0</v>
       </c>
@@ -5478,18 +5478,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="178">
+      <c r="AK20" s="144">
         <f>SUM(AJ20:AJ21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147"/>
-      <c r="B21" s="160"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="129"/>
+      <c r="D21" s="170"/>
       <c r="E21" s="74" t="s">
         <v>15</v>
       </c>
@@ -5525,24 +5525,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="179"/>
+      <c r="AI21" s="145"/>
       <c r="AJ21" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="179"/>
+      <c r="AK21" s="145"/>
     </row>
     <row r="22" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154">
+      <c r="A22" s="152">
         <v>7</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="166" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="171"/>
       <c r="E22" s="76" t="s">
         <v>13</v>
       </c>
@@ -5592,12 +5592,12 @@
       </c>
     </row>
     <row r="23" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="161">
+      <c r="D23" s="177">
         <v>3</v>
       </c>
       <c r="E23" s="78" t="s">
@@ -5635,7 +5635,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="173">
+      <c r="AI23" s="142">
         <f>SUM(AH23:AH24)</f>
         <v>0</v>
       </c>
@@ -5643,18 +5643,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="173">
+      <c r="AK23" s="142">
         <f>SUM(AJ23:AJ24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="155"/>
-      <c r="B24" s="160"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="142"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="74" t="s">
         <v>15</v>
       </c>
@@ -5690,24 +5690,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="174"/>
+      <c r="AI24" s="143"/>
       <c r="AJ24" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="174"/>
+      <c r="AK24" s="143"/>
     </row>
     <row r="25" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="154">
+      <c r="A25" s="152">
         <v>8</v>
       </c>
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="160" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="142"/>
+      <c r="D25" s="178"/>
       <c r="E25" s="73" t="s">
         <v>16</v>
       </c>
@@ -5743,7 +5743,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="175">
+      <c r="AI25" s="147">
         <f>SUM(AH25:AH27)</f>
         <v>0</v>
       </c>
@@ -5751,18 +5751,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="175">
+      <c r="AK25" s="147">
         <f>SUM(AJ25:AJ27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="169"/>
-      <c r="B26" s="168"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="142"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="77" t="s">
         <v>13</v>
       </c>
@@ -5798,20 +5798,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="176"/>
+      <c r="AI26" s="148"/>
       <c r="AJ26" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="176"/>
+      <c r="AK26" s="148"/>
     </row>
     <row r="27" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="155"/>
-      <c r="B27" s="167"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="143"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="74" t="s">
         <v>14</v>
       </c>
@@ -5847,24 +5847,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="177"/>
+      <c r="AI27" s="149"/>
       <c r="AJ27" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="177"/>
+      <c r="AK27" s="149"/>
     </row>
     <row r="28" spans="1:37" s="7" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="112">
         <v>9</v>
       </c>
-      <c r="B28" s="194" t="s">
+      <c r="B28" s="141" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="156">
+      <c r="D28" s="174">
         <v>3</v>
       </c>
       <c r="E28" s="79" t="s">
@@ -5916,16 +5916,16 @@
       </c>
     </row>
     <row r="29" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="164">
+      <c r="A29" s="158">
         <v>10</v>
       </c>
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="156" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="157"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="80" t="s">
         <v>16</v>
       </c>
@@ -5961,7 +5961,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="173">
+      <c r="AI29" s="142">
         <f>SUM(AH29:AH30)</f>
         <v>0</v>
       </c>
@@ -5969,18 +5969,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="173">
+      <c r="AK29" s="142">
         <f>SUM(AJ29:AJ30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="163"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="157"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="81" t="s">
         <v>13</v>
       </c>
@@ -6016,24 +6016,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="174"/>
+      <c r="AI30" s="143"/>
       <c r="AJ30" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="174"/>
+      <c r="AK30" s="143"/>
     </row>
     <row r="31" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="162">
+      <c r="A31" s="154">
         <v>11</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="159" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="80" t="s">
         <v>14</v>
       </c>
@@ -6069,7 +6069,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="173">
+      <c r="AI31" s="142">
         <f>SUM(AH31:AH32)</f>
         <v>0</v>
       </c>
@@ -6077,18 +6077,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="173">
+      <c r="AK31" s="142">
         <f>SUM(AJ31:AJ32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163"/>
-      <c r="B32" s="153"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="157"/>
       <c r="C32" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="158"/>
+      <c r="D32" s="176"/>
       <c r="E32" s="81" t="s">
         <v>15</v>
       </c>
@@ -6124,24 +6124,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="174"/>
+      <c r="AI32" s="143"/>
       <c r="AJ32" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="174"/>
+      <c r="AK32" s="143"/>
     </row>
     <row r="33" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162">
+      <c r="A33" s="154">
         <v>12</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="159" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="156">
+      <c r="D33" s="174">
         <v>3</v>
       </c>
       <c r="E33" s="82" t="s">
@@ -6179,7 +6179,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="175">
+      <c r="AI33" s="147">
         <f>SUM(AH33:AH35)</f>
         <v>0</v>
       </c>
@@ -6187,18 +6187,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="175">
+      <c r="AK33" s="147">
         <f>SUM(AJ33:AJ35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="171"/>
-      <c r="B34" s="170"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="157"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="82" t="s">
         <v>12</v>
       </c>
@@ -6234,20 +6234,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="176"/>
+      <c r="AI34" s="148"/>
       <c r="AJ34" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="176"/>
+      <c r="AK34" s="148"/>
     </row>
     <row r="35" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163"/>
-      <c r="B35" s="153"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="157"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="81" t="s">
         <v>13</v>
       </c>
@@ -6283,24 +6283,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="177"/>
+      <c r="AI35" s="149"/>
       <c r="AJ35" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="177"/>
+      <c r="AK35" s="149"/>
     </row>
     <row r="36" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162">
+      <c r="A36" s="154">
         <v>13</v>
       </c>
-      <c r="B36" s="166" t="s">
+      <c r="B36" s="160" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="157"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="82" t="s">
         <v>14</v>
       </c>
@@ -6336,7 +6336,7 @@
         <f>SUM(F36:AG36)</f>
         <v>0</v>
       </c>
-      <c r="AI36" s="173">
+      <c r="AI36" s="142">
         <f>SUM(AH36:AH37)</f>
         <v>0</v>
       </c>
@@ -6344,18 +6344,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="173">
+      <c r="AK36" s="142">
         <f>SUM(AJ36:AJ37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="163"/>
-      <c r="B37" s="167"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="161"/>
       <c r="C37" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="158"/>
+      <c r="D37" s="176"/>
       <c r="E37" s="81" t="s">
         <v>15</v>
       </c>
@@ -6391,12 +6391,12 @@
         <f>SUM(F37:AG37)</f>
         <v>0</v>
       </c>
-      <c r="AI37" s="174"/>
+      <c r="AI37" s="143"/>
       <c r="AJ37" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="174"/>
+      <c r="AK37" s="143"/>
     </row>
     <row r="38" spans="1:37" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
@@ -6438,7 +6438,7 @@
       <c r="AK38" s="12"/>
     </row>
     <row r="39" spans="1:37" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="193" t="s">
+      <c r="A39" s="140" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6589,50 +6589,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="AI33:AI35"/>
-    <mergeCell ref="AK33:AK35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="AI25:AI27"/>
-    <mergeCell ref="AK25:AK27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="AI14:AI17"/>
-    <mergeCell ref="AK14:AK17"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AK6:AK7"/>
     <mergeCell ref="A8:A9"/>
@@ -6649,6 +6605,50 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:AG6"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="AI14:AI17"/>
+    <mergeCell ref="AK14:AK17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="AI25:AI27"/>
+    <mergeCell ref="AK25:AK27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AK31:AK32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="AI33:AI35"/>
+    <mergeCell ref="AK33:AK35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AK36:AK37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
